--- a/Jogos_do_Dia/2022-12-18_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2022-12-18_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.4</v>
+        <v>2.51</v>
       </c>
       <c r="G2" t="n">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="H2" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="I2" t="n">
         <v>1.04</v>
@@ -653,10 +653,10 @@
         <v>3.6</v>
       </c>
       <c r="M2" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="N2" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="O2" t="n">
         <v>1.36</v>
@@ -704,7 +704,7 @@
         <v>1.95</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AE2" t="n">
         <v>1.22</v>
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.83</v>
+        <v>1.99</v>
       </c>
       <c r="G3" t="n">
-        <v>3.55</v>
+        <v>3.95</v>
       </c>
       <c r="H3" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="I3" t="n">
         <v>1.02</v>
@@ -763,10 +763,10 @@
         <v>3.8</v>
       </c>
       <c r="M3" t="n">
-        <v>1.7</v>
+        <v>1.61</v>
       </c>
       <c r="N3" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="O3" t="n">
         <v>1.33</v>
@@ -814,7 +814,7 @@
         <v>2.87</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AE3" t="n">
         <v>1.27</v>
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="G4" t="n">
-        <v>3.04</v>
+        <v>3.1</v>
       </c>
       <c r="H4" t="n">
-        <v>3.54</v>
+        <v>3.2</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -867,16 +867,16 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="L4" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="M4" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="N4" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="O4" t="n">
         <v>1.57</v>
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.23</v>
+        <v>2.31</v>
       </c>
       <c r="G5" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="H5" t="n">
-        <v>3.05</v>
+        <v>2.97</v>
       </c>
       <c r="I5" t="n">
         <v>1.09</v>
@@ -983,10 +983,10 @@
         <v>2.8</v>
       </c>
       <c r="M5" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="N5" t="n">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="O5" t="n">
         <v>1.5</v>
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.92</v>
+        <v>3.3</v>
       </c>
       <c r="G6" t="n">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1093,10 +1093,10 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="N6" t="n">
-        <v>2.15</v>
+        <v>2.14</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.58</v>
+        <v>2.46</v>
       </c>
       <c r="G7" t="n">
-        <v>3.04</v>
+        <v>3.05</v>
       </c>
       <c r="H7" t="n">
-        <v>2.84</v>
+        <v>2.74</v>
       </c>
       <c r="I7" t="n">
         <v>1.09</v>
@@ -1200,13 +1200,13 @@
         <v>1.5</v>
       </c>
       <c r="L7" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="M7" t="n">
         <v>2.5</v>
       </c>
-      <c r="M7" t="n">
-        <v>2.55</v>
-      </c>
       <c r="N7" t="n">
-        <v>1.49</v>
+        <v>1.43</v>
       </c>
       <c r="O7" t="n">
         <v>1.56</v>
@@ -1292,13 +1292,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="G8" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H8" t="n">
-        <v>4.35</v>
+        <v>4.25</v>
       </c>
       <c r="I8" t="n">
         <v>1.05</v>
@@ -1313,10 +1313,10 @@
         <v>2.7</v>
       </c>
       <c r="M8" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="N8" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="O8" t="n">
         <v>1.51</v>
@@ -1402,13 +1402,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.08</v>
+        <v>1.95</v>
       </c>
       <c r="G9" t="n">
-        <v>3.18</v>
+        <v>2.9</v>
       </c>
       <c r="H9" t="n">
-        <v>3.82</v>
+        <v>3.75</v>
       </c>
       <c r="I9" t="n">
         <v>1.09</v>
@@ -1417,10 +1417,10 @@
         <v>6</v>
       </c>
       <c r="K9" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="L9" t="n">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="M9" t="n">
         <v>2.4</v>
@@ -1512,13 +1512,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.04</v>
+        <v>2.86</v>
       </c>
       <c r="G10" t="n">
-        <v>3.18</v>
+        <v>3.25</v>
       </c>
       <c r="H10" t="n">
-        <v>2.42</v>
+        <v>2.35</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1533,10 +1533,10 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>2.06</v>
+        <v>2.35</v>
       </c>
       <c r="N10" t="n">
-        <v>1.8</v>
+        <v>1.53</v>
       </c>
       <c r="O10" t="n">
         <v>1.53</v>
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.53</v>
+        <v>2.37</v>
       </c>
       <c r="G11" t="n">
-        <v>3.32</v>
+        <v>3</v>
       </c>
       <c r="H11" t="n">
-        <v>2.74</v>
+        <v>2.75</v>
       </c>
       <c r="I11" t="n">
         <v>1.05</v>
@@ -1643,10 +1643,10 @@
         <v>3.2</v>
       </c>
       <c r="M11" t="n">
-        <v>2.06</v>
+        <v>2.05</v>
       </c>
       <c r="N11" t="n">
-        <v>1.77</v>
+        <v>1.67</v>
       </c>
       <c r="O11" t="n">
         <v>1.44</v>
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="G12" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="H12" t="n">
-        <v>4.86</v>
+        <v>4.4</v>
       </c>
       <c r="I12" t="n">
         <v>1.06</v>
@@ -1753,10 +1753,10 @@
         <v>3</v>
       </c>
       <c r="M12" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="N12" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="O12" t="n">
         <v>1.44</v>
@@ -1842,13 +1842,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.04</v>
+        <v>1.92</v>
       </c>
       <c r="G13" t="n">
-        <v>3.58</v>
+        <v>3.55</v>
       </c>
       <c r="H13" t="n">
-        <v>3.48</v>
+        <v>3.6</v>
       </c>
       <c r="I13" t="n">
         <v>1.06</v>
@@ -1863,10 +1863,10 @@
         <v>3.3</v>
       </c>
       <c r="M13" t="n">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="N13" t="n">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="O13" t="n">
         <v>1.36</v>
@@ -1952,13 +1952,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.69</v>
+        <v>2.6</v>
       </c>
       <c r="G14" t="n">
-        <v>3.28</v>
+        <v>3</v>
       </c>
       <c r="H14" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="I14" t="n">
         <v>1.07</v>
@@ -1973,10 +1973,10 @@
         <v>3</v>
       </c>
       <c r="M14" t="n">
-        <v>2.11</v>
+        <v>2.1</v>
       </c>
       <c r="N14" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="O14" t="n">
         <v>1.44</v>
@@ -2062,13 +2062,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.21</v>
+        <v>2.35</v>
       </c>
       <c r="G15" t="n">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="H15" t="n">
-        <v>3.5</v>
+        <v>3.05</v>
       </c>
       <c r="I15" t="n">
         <v>1.12</v>
@@ -2077,13 +2077,13 @@
         <v>6</v>
       </c>
       <c r="K15" t="n">
-        <v>1.61</v>
+        <v>1.57</v>
       </c>
       <c r="L15" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="M15" t="n">
-        <v>2.75</v>
+        <v>2.58</v>
       </c>
       <c r="N15" t="n">
         <v>1.4</v>
@@ -2172,13 +2172,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.13</v>
+        <v>2.05</v>
       </c>
       <c r="G16" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="H16" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I16" t="n">
         <v>1.06</v>
@@ -2193,7 +2193,7 @@
         <v>2.61</v>
       </c>
       <c r="M16" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="N16" t="n">
         <v>1.53</v>
@@ -2282,13 +2282,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.19</v>
+        <v>2.74</v>
       </c>
       <c r="G17" t="n">
-        <v>3.04</v>
+        <v>3.05</v>
       </c>
       <c r="H17" t="n">
-        <v>2.37</v>
+        <v>2.46</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2297,16 +2297,16 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="L17" t="n">
-        <v>2.48</v>
+        <v>2.45</v>
       </c>
       <c r="M17" t="n">
-        <v>2.55</v>
+        <v>2.56</v>
       </c>
       <c r="N17" t="n">
-        <v>1.45</v>
+        <v>1.41</v>
       </c>
       <c r="O17" t="n">
         <v>1.57</v>
@@ -2392,13 +2392,13 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="G18" t="n">
-        <v>3.18</v>
+        <v>3.3</v>
       </c>
       <c r="H18" t="n">
-        <v>3.82</v>
+        <v>3.15</v>
       </c>
       <c r="I18" t="n">
         <v>1.07</v>
@@ -2413,10 +2413,10 @@
         <v>2.87</v>
       </c>
       <c r="M18" t="n">
-        <v>2.19</v>
+        <v>2.2</v>
       </c>
       <c r="N18" t="n">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="O18" t="n">
         <v>1.44</v>
@@ -2502,13 +2502,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="G19" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="H19" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="I19" t="n">
         <v>1.09</v>
@@ -2517,16 +2517,16 @@
         <v>6.2</v>
       </c>
       <c r="K19" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="L19" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="M19" t="n">
-        <v>2.55</v>
+        <v>2.49</v>
       </c>
       <c r="N19" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="O19" t="n">
         <v>1.6</v>

--- a/Jogos_do_Dia/2022-12-18_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2022-12-18_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.51</v>
+        <v>2.38</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="H2" t="n">
-        <v>2.6</v>
+        <v>2.72</v>
       </c>
       <c r="I2" t="n">
         <v>1.04</v>
@@ -653,10 +653,10 @@
         <v>3.6</v>
       </c>
       <c r="M2" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="N2" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="O2" t="n">
         <v>1.36</v>
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.99</v>
+        <v>2.06</v>
       </c>
       <c r="G3" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="H3" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I3" t="n">
         <v>1.02</v>
@@ -763,10 +763,10 @@
         <v>3.8</v>
       </c>
       <c r="M3" t="n">
-        <v>1.61</v>
+        <v>1.7</v>
       </c>
       <c r="N3" t="n">
-        <v>2.15</v>
+        <v>2.16</v>
       </c>
       <c r="O3" t="n">
         <v>1.33</v>
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.16</v>
+        <v>2.17</v>
       </c>
       <c r="G4" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="H4" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -867,10 +867,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="L4" t="n">
-        <v>2.4</v>
+        <v>2.26</v>
       </c>
       <c r="M4" t="n">
         <v>2.7</v>
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="G6" t="n">
-        <v>3.85</v>
+        <v>3.45</v>
       </c>
       <c r="H6" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.46</v>
+        <v>2.73</v>
       </c>
       <c r="G7" t="n">
-        <v>3.05</v>
+        <v>2.92</v>
       </c>
       <c r="H7" t="n">
-        <v>2.74</v>
+        <v>2.43</v>
       </c>
       <c r="I7" t="n">
         <v>1.09</v>
@@ -1197,10 +1197,10 @@
         <v>6.5</v>
       </c>
       <c r="K7" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="L7" t="n">
-        <v>2.45</v>
+        <v>2.44</v>
       </c>
       <c r="M7" t="n">
         <v>2.5</v>
@@ -1292,13 +1292,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="G8" t="n">
         <v>3.3</v>
       </c>
       <c r="H8" t="n">
-        <v>4.25</v>
+        <v>3.5</v>
       </c>
       <c r="I8" t="n">
         <v>1.05</v>
@@ -1313,10 +1313,10 @@
         <v>2.7</v>
       </c>
       <c r="M8" t="n">
-        <v>2.25</v>
+        <v>2.37</v>
       </c>
       <c r="N8" t="n">
-        <v>1.57</v>
+        <v>1.46</v>
       </c>
       <c r="O8" t="n">
         <v>1.51</v>
@@ -1405,10 +1405,10 @@
         <v>1.95</v>
       </c>
       <c r="G9" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H9" t="n">
-        <v>3.75</v>
+        <v>4.4</v>
       </c>
       <c r="I9" t="n">
         <v>1.09</v>
@@ -1417,10 +1417,10 @@
         <v>6</v>
       </c>
       <c r="K9" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="L9" t="n">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="M9" t="n">
         <v>2.4</v>
@@ -1512,13 +1512,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.86</v>
+        <v>2.8</v>
       </c>
       <c r="G10" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="H10" t="n">
-        <v>2.35</v>
+        <v>2.55</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1533,10 +1533,10 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="N10" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="O10" t="n">
         <v>1.53</v>
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.37</v>
+        <v>2.45</v>
       </c>
       <c r="G11" t="n">
         <v>3</v>
       </c>
       <c r="H11" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="I11" t="n">
         <v>1.05</v>
@@ -1643,10 +1643,10 @@
         <v>3.2</v>
       </c>
       <c r="M11" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="N11" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="O11" t="n">
         <v>1.44</v>
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.74</v>
+        <v>1.62</v>
       </c>
       <c r="G12" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="H12" t="n">
-        <v>4.4</v>
+        <v>5.5</v>
       </c>
       <c r="I12" t="n">
         <v>1.06</v>
@@ -1753,10 +1753,10 @@
         <v>3</v>
       </c>
       <c r="M12" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="N12" t="n">
-        <v>1.7</v>
+        <v>1.74</v>
       </c>
       <c r="O12" t="n">
         <v>1.44</v>
@@ -1842,13 +1842,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="G13" t="n">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
       <c r="H13" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="I13" t="n">
         <v>1.06</v>
@@ -1863,10 +1863,10 @@
         <v>3.3</v>
       </c>
       <c r="M13" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="N13" t="n">
         <v>1.95</v>
-      </c>
-      <c r="N13" t="n">
-        <v>1.91</v>
       </c>
       <c r="O13" t="n">
         <v>1.36</v>
@@ -1952,13 +1952,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="G14" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="H14" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="I14" t="n">
         <v>1.07</v>
@@ -1973,10 +1973,10 @@
         <v>3</v>
       </c>
       <c r="M14" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="N14" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="O14" t="n">
         <v>1.44</v>
@@ -2062,13 +2062,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.35</v>
+        <v>2.34</v>
       </c>
       <c r="G15" t="n">
-        <v>3.05</v>
+        <v>2.85</v>
       </c>
       <c r="H15" t="n">
-        <v>3.05</v>
+        <v>2.7</v>
       </c>
       <c r="I15" t="n">
         <v>1.12</v>
@@ -2077,10 +2077,10 @@
         <v>6</v>
       </c>
       <c r="K15" t="n">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="L15" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="M15" t="n">
         <v>2.58</v>
@@ -2172,13 +2172,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="G16" t="n">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="H16" t="n">
-        <v>3.5</v>
+        <v>2.98</v>
       </c>
       <c r="I16" t="n">
         <v>1.06</v>
@@ -2193,10 +2193,10 @@
         <v>2.61</v>
       </c>
       <c r="M16" t="n">
-        <v>2.37</v>
+        <v>2.19</v>
       </c>
       <c r="N16" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="O16" t="n">
         <v>1.53</v>
@@ -2282,13 +2282,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.74</v>
+        <v>2.54</v>
       </c>
       <c r="G17" t="n">
-        <v>3.05</v>
+        <v>2.86</v>
       </c>
       <c r="H17" t="n">
-        <v>2.46</v>
+        <v>2.47</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2297,10 +2297,10 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="L17" t="n">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="M17" t="n">
         <v>2.56</v>
@@ -2392,13 +2392,13 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.16</v>
+        <v>2.02</v>
       </c>
       <c r="G18" t="n">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="H18" t="n">
-        <v>3.15</v>
+        <v>4.3</v>
       </c>
       <c r="I18" t="n">
         <v>1.07</v>
@@ -2413,7 +2413,7 @@
         <v>2.87</v>
       </c>
       <c r="M18" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="N18" t="n">
         <v>1.6</v>
@@ -2502,13 +2502,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.2</v>
+        <v>2.76</v>
       </c>
       <c r="G19" t="n">
-        <v>3.1</v>
+        <v>2.92</v>
       </c>
       <c r="H19" t="n">
-        <v>2.25</v>
+        <v>2.26</v>
       </c>
       <c r="I19" t="n">
         <v>1.09</v>
